--- a/samples/chile2002/metadata/variables.metadata.manuallyedited.xlsx
+++ b/samples/chile2002/metadata/variables.metadata.manuallyedited.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="262">
   <si>
     <t>vdescription</t>
   </si>
@@ -649,12 +649,6 @@
     <t>P</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
@@ -785,6 +779,27 @@
   </si>
   <si>
     <t>P36</t>
+  </si>
+  <si>
+    <t>XXX</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>15:100</t>
+  </si>
+  <si>
+    <t>1:8</t>
+  </si>
+  <si>
+    <t>5:10</t>
+  </si>
+  <si>
+    <t>5:100</t>
   </si>
 </sst>
 </file>
@@ -853,7 +868,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -868,6 +883,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1171,7 +1192,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1188,9 +1212,9 @@
     <col min="11" max="11" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="3.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="5.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="6.140625" style="4" bestFit="1" customWidth="1"/>
@@ -1235,7 +1259,7 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
@@ -1270,30 +1294,38 @@
       <c r="B2" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>211</v>
+      </c>
       <c r="D2" s="2" t="s">
         <v>209</v>
       </c>
       <c r="E2" s="3">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>208</v>
+      <c r="F2" s="2">
+        <v>0</v>
       </c>
       <c r="G2" s="3">
         <v>437766</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>211</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>208</v>
@@ -1327,8 +1359,8 @@
       <c r="B3" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>208</v>
+      <c r="C3" s="5" t="s">
+        <v>256</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>209</v>
@@ -1336,23 +1368,29 @@
       <c r="E3" s="3">
         <v>7</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>208</v>
+      <c r="F3" s="2">
+        <v>0</v>
       </c>
       <c r="G3" s="3">
         <v>413367</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>211</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>208</v>
@@ -1386,8 +1424,8 @@
       <c r="B4" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>208</v>
+      <c r="C4" s="5" t="s">
+        <v>256</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>209</v>
@@ -1395,26 +1433,29 @@
       <c r="E4" s="3">
         <v>2</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>208</v>
+      <c r="F4" s="2">
+        <v>0</v>
       </c>
       <c r="G4" s="3">
         <v>12</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>212</v>
+      <c r="H4" s="2">
+        <v>1</v>
       </c>
       <c r="I4" s="3">
         <v>12</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>208</v>
@@ -1449,7 +1490,7 @@
         <v>118</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>209</v>
@@ -1457,26 +1498,29 @@
       <c r="E5" s="3">
         <v>2</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>208</v>
+      <c r="F5" s="2">
+        <v>0</v>
       </c>
       <c r="G5" s="3">
         <v>12</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>212</v>
+      <c r="H5" s="2">
+        <v>1</v>
       </c>
       <c r="I5" s="3">
         <v>12</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>208</v>
@@ -1510,8 +1554,8 @@
       <c r="B6" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>208</v>
+      <c r="C6" s="5" t="s">
+        <v>211</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>209</v>
@@ -1519,26 +1563,29 @@
       <c r="E6" s="3">
         <v>2</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>208</v>
+      <c r="F6" s="2">
+        <v>0</v>
       </c>
       <c r="G6" s="3">
         <v>30</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>212</v>
+      <c r="H6" s="2">
+        <v>1</v>
       </c>
       <c r="I6" s="3">
         <v>31</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>208</v>
@@ -1572,8 +1619,8 @@
       <c r="B7" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>208</v>
+      <c r="C7" s="5" t="s">
+        <v>211</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>209</v>
@@ -1581,26 +1628,29 @@
       <c r="E7" s="3">
         <v>2</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>208</v>
+      <c r="F7" s="2">
+        <v>0</v>
       </c>
       <c r="G7" s="3">
         <v>30</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>212</v>
+      <c r="H7" s="2">
+        <v>1</v>
       </c>
       <c r="I7" s="3">
         <v>31</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>208</v>
@@ -1634,8 +1684,8 @@
       <c r="B8" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>208</v>
+      <c r="C8" s="5" t="s">
+        <v>255</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>209</v>
@@ -1643,26 +1693,29 @@
       <c r="E8" s="3">
         <v>1</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>208</v>
+      <c r="F8" s="2">
+        <v>1</v>
       </c>
       <c r="G8" s="3">
         <v>3</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>212</v>
+      <c r="H8" s="2">
+        <v>1</v>
       </c>
       <c r="I8" s="3">
         <v>3</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>208</v>
@@ -1696,8 +1749,8 @@
       <c r="B9" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>208</v>
+      <c r="C9" s="5" t="s">
+        <v>257</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>209</v>
@@ -1705,26 +1758,29 @@
       <c r="E9" s="3">
         <v>2</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>208</v>
+      <c r="F9" s="2">
+        <v>1</v>
       </c>
       <c r="G9" s="3">
         <v>13</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>212</v>
+      <c r="H9" s="2">
+        <v>1</v>
       </c>
       <c r="I9" s="3">
         <v>13</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>208</v>
@@ -1758,8 +1814,8 @@
       <c r="B10" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>208</v>
+      <c r="C10" s="5" t="s">
+        <v>257</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>209</v>
@@ -1767,26 +1823,29 @@
       <c r="E10" s="3">
         <v>1</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>208</v>
+      <c r="F10" s="2">
+        <v>1</v>
       </c>
       <c r="G10" s="3">
         <v>2</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>212</v>
+      <c r="H10" s="2">
+        <v>1</v>
       </c>
       <c r="I10" s="3">
         <v>2</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>208</v>
@@ -1821,7 +1880,7 @@
         <v>124</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>209</v>
@@ -1829,26 +1888,29 @@
       <c r="E11" s="3">
         <v>2</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>208</v>
+      <c r="F11" s="2">
+        <v>1</v>
       </c>
       <c r="G11" s="3">
         <v>10</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>212</v>
+      <c r="H11" s="2">
+        <v>1</v>
       </c>
       <c r="I11" s="3">
         <v>10</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
+        <v>0</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>208</v>
@@ -1883,7 +1945,7 @@
         <v>125</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>209</v>
@@ -1891,26 +1953,29 @@
       <c r="E12" s="3">
         <v>1</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>208</v>
+      <c r="F12" s="2">
+        <v>1</v>
       </c>
       <c r="G12" s="3">
         <v>2</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>212</v>
+      <c r="H12" s="2">
+        <v>1</v>
       </c>
       <c r="I12" s="3">
         <v>4</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>208</v>
@@ -1945,7 +2010,7 @@
         <v>126</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>209</v>
@@ -1953,32 +2018,35 @@
       <c r="E13" s="3">
         <v>1</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>208</v>
+      <c r="F13" s="2">
+        <v>1</v>
       </c>
       <c r="G13" s="3">
         <v>6</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>212</v>
+      <c r="H13" s="2">
+        <v>1</v>
       </c>
       <c r="I13" s="3">
         <v>6</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>208</v>
+        <v>218</v>
+      </c>
+      <c r="L13" s="4">
+        <v>1</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>259</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>208</v>
@@ -2007,7 +2075,7 @@
         <v>127</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>209</v>
@@ -2015,32 +2083,35 @@
       <c r="E14" s="3">
         <v>1</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>208</v>
+      <c r="F14" s="2">
+        <v>1</v>
       </c>
       <c r="G14" s="3">
         <v>8</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>212</v>
+      <c r="H14" s="2">
+        <v>1</v>
       </c>
       <c r="I14" s="3">
         <v>8</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>208</v>
+        <v>218</v>
+      </c>
+      <c r="L14" s="4">
+        <v>1</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>259</v>
       </c>
       <c r="P14" s="2" t="s">
         <v>208</v>
@@ -2069,7 +2140,7 @@
         <v>128</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>209</v>
@@ -2077,32 +2148,35 @@
       <c r="E15" s="3">
         <v>1</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>208</v>
+      <c r="F15" s="2">
+        <v>1</v>
       </c>
       <c r="G15" s="3">
         <v>10</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>212</v>
+      <c r="H15" s="2">
+        <v>1</v>
       </c>
       <c r="I15" s="3">
         <v>10</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>208</v>
+        <v>218</v>
+      </c>
+      <c r="L15" s="4">
+        <v>1</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>259</v>
       </c>
       <c r="P15" s="2" t="s">
         <v>208</v>
@@ -2131,7 +2205,7 @@
         <v>129</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>209</v>
@@ -2139,32 +2213,35 @@
       <c r="E16" s="3">
         <v>1</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>208</v>
+      <c r="F16" s="2">
+        <v>1</v>
       </c>
       <c r="G16" s="3">
         <v>9</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>212</v>
+      <c r="H16" s="2">
+        <v>1</v>
       </c>
       <c r="I16" s="3">
         <v>10</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>208</v>
+        <v>218</v>
+      </c>
+      <c r="L16" s="4">
+        <v>1</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>259</v>
       </c>
       <c r="P16" s="2" t="s">
         <v>208</v>
@@ -2193,7 +2270,7 @@
         <v>130</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>209</v>
@@ -2201,32 +2278,35 @@
       <c r="E17" s="3">
         <v>1</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>208</v>
+      <c r="F17" s="2">
+        <v>1</v>
       </c>
       <c r="G17" s="3">
         <v>5</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>212</v>
+      <c r="H17" s="2">
+        <v>1</v>
       </c>
       <c r="I17" s="3">
         <v>5</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>208</v>
+        <v>218</v>
+      </c>
+      <c r="L17" s="4">
+        <v>1</v>
+      </c>
+      <c r="M17" s="4">
+        <v>0</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>259</v>
       </c>
       <c r="P17" s="2" t="s">
         <v>208</v>
@@ -2255,7 +2335,7 @@
         <v>131</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>209</v>
@@ -2263,32 +2343,35 @@
       <c r="E18" s="3">
         <v>1</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>208</v>
+      <c r="F18" s="2">
+        <v>1</v>
       </c>
       <c r="G18" s="3">
         <v>4</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>212</v>
+      <c r="H18" s="2">
+        <v>1</v>
       </c>
       <c r="I18" s="3">
         <v>4</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>208</v>
+        <v>218</v>
+      </c>
+      <c r="L18" s="4">
+        <v>1</v>
+      </c>
+      <c r="M18" s="4">
+        <v>0</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>259</v>
       </c>
       <c r="P18" s="2" t="s">
         <v>208</v>
@@ -2317,7 +2400,7 @@
         <v>132</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>209</v>
@@ -2325,32 +2408,35 @@
       <c r="E19" s="3">
         <v>1</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>208</v>
+      <c r="F19" s="2">
+        <v>1</v>
       </c>
       <c r="G19" s="3">
         <v>4</v>
       </c>
-      <c r="H19" s="2" t="s">
-        <v>212</v>
+      <c r="H19" s="2">
+        <v>1</v>
       </c>
       <c r="I19" s="3">
         <v>4</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>208</v>
+        <v>218</v>
+      </c>
+      <c r="L19" s="4">
+        <v>1</v>
+      </c>
+      <c r="M19" s="4">
+        <v>0</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>259</v>
       </c>
       <c r="P19" s="2" t="s">
         <v>208</v>
@@ -2379,7 +2465,7 @@
         <v>133</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>209</v>
@@ -2387,32 +2473,35 @@
       <c r="E20" s="3">
         <v>1</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>208</v>
+      <c r="F20" s="2">
+        <v>1</v>
       </c>
       <c r="G20" s="3">
         <v>7</v>
       </c>
-      <c r="H20" s="2" t="s">
-        <v>212</v>
+      <c r="H20" s="2">
+        <v>1</v>
       </c>
       <c r="I20" s="3">
         <v>7</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>208</v>
+        <v>218</v>
+      </c>
+      <c r="L20" s="4">
+        <v>1</v>
+      </c>
+      <c r="M20" s="4">
+        <v>0</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>259</v>
       </c>
       <c r="P20" s="2" t="s">
         <v>208</v>
@@ -2441,7 +2530,7 @@
         <v>134</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>209</v>
@@ -2449,32 +2538,35 @@
       <c r="E21" s="3">
         <v>1</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>208</v>
+      <c r="F21" s="2">
+        <v>0</v>
       </c>
       <c r="G21" s="3">
         <v>7</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>212</v>
+      <c r="H21" s="2">
+        <v>1</v>
       </c>
       <c r="I21" s="3">
         <v>7</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>208</v>
+        <v>218</v>
+      </c>
+      <c r="L21" s="4">
+        <v>1</v>
+      </c>
+      <c r="M21" s="4">
+        <v>0</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>259</v>
       </c>
       <c r="P21" s="2" t="s">
         <v>208</v>
@@ -2503,7 +2595,7 @@
         <v>135</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>209</v>
@@ -2511,32 +2603,35 @@
       <c r="E22" s="3">
         <v>2</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>208</v>
+      <c r="F22" s="2">
+        <v>0</v>
       </c>
       <c r="G22" s="3">
         <v>12</v>
       </c>
-      <c r="H22" s="2" t="s">
-        <v>212</v>
+      <c r="H22" s="2">
+        <v>1</v>
       </c>
       <c r="I22" s="3">
         <v>12</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>208</v>
+        <v>218</v>
+      </c>
+      <c r="L22" s="4">
+        <v>1</v>
+      </c>
+      <c r="M22" s="4">
+        <v>0</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>259</v>
       </c>
       <c r="P22" s="2" t="s">
         <v>208</v>
@@ -2565,7 +2660,7 @@
         <v>136</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>209</v>
@@ -2573,32 +2668,35 @@
       <c r="E23" s="3">
         <v>2</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>208</v>
+      <c r="F23" s="2">
+        <v>0</v>
       </c>
       <c r="G23" s="3">
         <v>13</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>212</v>
+      <c r="H23" s="2">
+        <v>1</v>
       </c>
       <c r="I23" s="3">
         <v>13</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="O23" s="2" t="s">
-        <v>208</v>
+        <v>218</v>
+      </c>
+      <c r="L23" s="4">
+        <v>1</v>
+      </c>
+      <c r="M23" s="4">
+        <v>0</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>259</v>
       </c>
       <c r="P23" s="2" t="s">
         <v>208</v>
@@ -2627,7 +2725,7 @@
         <v>137</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>209</v>
@@ -2635,32 +2733,35 @@
       <c r="E24" s="3">
         <v>2</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>208</v>
+      <c r="F24" s="2">
+        <v>0</v>
       </c>
       <c r="G24" s="3">
         <v>13</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>212</v>
+      <c r="H24" s="2">
+        <v>1</v>
       </c>
       <c r="I24" s="3">
         <v>13</v>
       </c>
       <c r="J24" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="K24" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="K24" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>208</v>
+      <c r="L24" s="4">
+        <v>1</v>
+      </c>
+      <c r="M24" s="4">
+        <v>0</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>259</v>
       </c>
       <c r="P24" s="2" t="s">
         <v>208</v>
@@ -2689,7 +2790,7 @@
         <v>138</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>209</v>
@@ -2697,32 +2798,35 @@
       <c r="E25" s="3">
         <v>2</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>208</v>
+      <c r="F25" s="2">
+        <v>0</v>
       </c>
       <c r="G25" s="3">
         <v>8</v>
       </c>
-      <c r="H25" s="2" t="s">
-        <v>212</v>
+      <c r="H25" s="2">
+        <v>1</v>
       </c>
       <c r="I25" s="3">
         <v>8</v>
       </c>
       <c r="J25" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="K25" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="K25" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>208</v>
+      <c r="L25" s="4">
+        <v>1</v>
+      </c>
+      <c r="M25" s="4">
+        <v>0</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>259</v>
       </c>
       <c r="P25" s="2" t="s">
         <v>208</v>
@@ -2751,7 +2855,7 @@
         <v>139</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>209</v>
@@ -2759,32 +2863,35 @@
       <c r="E26" s="3">
         <v>2</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>208</v>
+      <c r="F26" s="2">
+        <v>0</v>
       </c>
       <c r="G26" s="3">
         <v>6</v>
       </c>
-      <c r="H26" s="2" t="s">
-        <v>212</v>
+      <c r="H26" s="2">
+        <v>1</v>
       </c>
       <c r="I26" s="3">
         <v>6</v>
       </c>
       <c r="J26" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="K26" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="K26" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>208</v>
+      <c r="L26" s="4">
+        <v>1</v>
+      </c>
+      <c r="M26" s="4">
+        <v>0</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="O26" s="6" t="s">
+        <v>259</v>
       </c>
       <c r="P26" s="2" t="s">
         <v>208</v>
@@ -2813,7 +2920,7 @@
         <v>140</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>209</v>
@@ -2821,32 +2928,35 @@
       <c r="E27" s="3">
         <v>2</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>208</v>
+      <c r="F27" s="2">
+        <v>0</v>
       </c>
       <c r="G27" s="3">
         <v>7</v>
       </c>
-      <c r="H27" s="2" t="s">
-        <v>212</v>
+      <c r="H27" s="2">
+        <v>1</v>
       </c>
       <c r="I27" s="3">
         <v>7</v>
       </c>
       <c r="J27" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="K27" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="K27" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>208</v>
+      <c r="L27" s="4">
+        <v>1</v>
+      </c>
+      <c r="M27" s="4">
+        <v>0</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>259</v>
       </c>
       <c r="P27" s="2" t="s">
         <v>208</v>
@@ -2875,7 +2985,7 @@
         <v>141</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>209</v>
@@ -2883,32 +2993,35 @@
       <c r="E28" s="3">
         <v>2</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>208</v>
+      <c r="F28" s="2">
+        <v>0</v>
       </c>
       <c r="G28" s="3">
         <v>12</v>
       </c>
-      <c r="H28" s="2" t="s">
-        <v>212</v>
+      <c r="H28" s="2">
+        <v>1</v>
       </c>
       <c r="I28" s="3">
         <v>12</v>
       </c>
       <c r="J28" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="K28" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="K28" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="O28" s="2" t="s">
-        <v>208</v>
+      <c r="L28" s="4">
+        <v>1</v>
+      </c>
+      <c r="M28" s="4">
+        <v>0</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="O28" s="6" t="s">
+        <v>259</v>
       </c>
       <c r="P28" s="2" t="s">
         <v>208</v>
@@ -2937,7 +3050,7 @@
         <v>142</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>209</v>
@@ -2945,32 +3058,35 @@
       <c r="E29" s="3">
         <v>2</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>208</v>
+      <c r="F29" s="2">
+        <v>0</v>
       </c>
       <c r="G29" s="3">
         <v>7</v>
       </c>
-      <c r="H29" s="2" t="s">
-        <v>212</v>
+      <c r="H29" s="2">
+        <v>1</v>
       </c>
       <c r="I29" s="3">
         <v>7</v>
       </c>
       <c r="J29" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="K29" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="K29" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="O29" s="2" t="s">
-        <v>208</v>
+      <c r="L29" s="4">
+        <v>1</v>
+      </c>
+      <c r="M29" s="4">
+        <v>0</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>259</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>208</v>
@@ -2999,7 +3115,7 @@
         <v>143</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>209</v>
@@ -3007,32 +3123,35 @@
       <c r="E30" s="3">
         <v>2</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>208</v>
+      <c r="F30" s="2">
+        <v>0</v>
       </c>
       <c r="G30" s="3">
         <v>7</v>
       </c>
-      <c r="H30" s="2" t="s">
-        <v>212</v>
+      <c r="H30" s="2">
+        <v>1</v>
       </c>
       <c r="I30" s="3">
         <v>7</v>
       </c>
       <c r="J30" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="K30" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="K30" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="O30" s="2" t="s">
-        <v>208</v>
+      <c r="L30" s="4">
+        <v>1</v>
+      </c>
+      <c r="M30" s="4">
+        <v>0</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="O30" s="6" t="s">
+        <v>259</v>
       </c>
       <c r="P30" s="2" t="s">
         <v>208</v>
@@ -3061,7 +3180,7 @@
         <v>144</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>209</v>
@@ -3069,32 +3188,35 @@
       <c r="E31" s="3">
         <v>2</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>208</v>
+      <c r="F31" s="2">
+        <v>0</v>
       </c>
       <c r="G31" s="3">
         <v>13</v>
       </c>
-      <c r="H31" s="2" t="s">
-        <v>212</v>
+      <c r="H31" s="2">
+        <v>1</v>
       </c>
       <c r="I31" s="3">
         <v>13</v>
       </c>
       <c r="J31" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="K31" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="K31" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="O31" s="2" t="s">
-        <v>208</v>
+      <c r="L31" s="4">
+        <v>1</v>
+      </c>
+      <c r="M31" s="4">
+        <v>0</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>259</v>
       </c>
       <c r="P31" s="2" t="s">
         <v>208</v>
@@ -3123,7 +3245,7 @@
         <v>145</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>209</v>
@@ -3131,32 +3253,35 @@
       <c r="E32" s="3">
         <v>1</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>208</v>
+      <c r="F32" s="2">
+        <v>1</v>
       </c>
       <c r="G32" s="3">
         <v>8</v>
       </c>
-      <c r="H32" s="2" t="s">
-        <v>212</v>
+      <c r="H32" s="2">
+        <v>1</v>
       </c>
       <c r="I32" s="3">
         <v>8</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="N32" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="O32" s="2" t="s">
-        <v>208</v>
+        <v>218</v>
+      </c>
+      <c r="L32" s="4">
+        <v>1</v>
+      </c>
+      <c r="M32" s="4">
+        <v>0</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="O32" s="6" t="s">
+        <v>259</v>
       </c>
       <c r="P32" s="2" t="s">
         <v>208</v>
@@ -3185,7 +3310,7 @@
         <v>146</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>209</v>
@@ -3193,32 +3318,32 @@
       <c r="E33" s="3">
         <v>2</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>208</v>
+      <c r="F33" s="2">
+        <v>1</v>
       </c>
       <c r="G33" s="3">
         <v>12</v>
       </c>
-      <c r="H33" s="2" t="s">
-        <v>212</v>
+      <c r="H33" s="2">
+        <v>1</v>
       </c>
       <c r="I33" s="3">
         <v>13</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="N33" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="O33" s="2" t="s">
-        <v>208</v>
+        <v>213</v>
+      </c>
+      <c r="M33" s="4">
+        <v>0</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="O33" s="6" t="s">
+        <v>259</v>
       </c>
       <c r="P33" s="2" t="s">
         <v>208</v>
@@ -3247,7 +3372,7 @@
         <v>147</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>209</v>
@@ -3255,32 +3380,35 @@
       <c r="E34" s="3">
         <v>1</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>208</v>
+      <c r="F34" s="2">
+        <v>1</v>
       </c>
       <c r="G34" s="3">
         <v>3</v>
       </c>
-      <c r="H34" s="2" t="s">
-        <v>212</v>
+      <c r="H34" s="2">
+        <v>1</v>
       </c>
       <c r="I34" s="3">
         <v>3</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="O34" s="2" t="s">
-        <v>208</v>
+        <v>218</v>
+      </c>
+      <c r="L34" s="4">
+        <v>1</v>
+      </c>
+      <c r="M34" s="4">
+        <v>0</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="O34" s="6" t="s">
+        <v>259</v>
       </c>
       <c r="P34" s="2" t="s">
         <v>208</v>
@@ -3309,7 +3437,7 @@
         <v>148</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>209</v>
@@ -3317,32 +3445,35 @@
       <c r="E35" s="3">
         <v>1</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>208</v>
+      <c r="F35" s="2">
+        <v>1</v>
       </c>
       <c r="G35" s="3">
         <v>3</v>
       </c>
-      <c r="H35" s="2" t="s">
-        <v>212</v>
+      <c r="H35" s="2">
+        <v>1</v>
       </c>
       <c r="I35" s="3">
         <v>3</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="O35" s="2" t="s">
-        <v>208</v>
+        <v>218</v>
+      </c>
+      <c r="L35" s="4">
+        <v>1</v>
+      </c>
+      <c r="M35" s="4">
+        <v>0</v>
+      </c>
+      <c r="N35" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="O35" s="6" t="s">
+        <v>259</v>
       </c>
       <c r="P35" s="2" t="s">
         <v>208</v>
@@ -3371,7 +3502,7 @@
         <v>149</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>209</v>
@@ -3379,32 +3510,35 @@
       <c r="E36" s="3">
         <v>1</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>208</v>
+      <c r="F36" s="2">
+        <v>1</v>
       </c>
       <c r="G36" s="3">
         <v>3</v>
       </c>
-      <c r="H36" s="2" t="s">
-        <v>212</v>
+      <c r="H36" s="2">
+        <v>1</v>
       </c>
       <c r="I36" s="3">
         <v>3</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="N36" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="O36" s="2" t="s">
-        <v>208</v>
+        <v>218</v>
+      </c>
+      <c r="L36" s="4">
+        <v>1</v>
+      </c>
+      <c r="M36" s="4">
+        <v>0</v>
+      </c>
+      <c r="N36" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="O36" s="6" t="s">
+        <v>259</v>
       </c>
       <c r="P36" s="2" t="s">
         <v>208</v>
@@ -3433,7 +3567,7 @@
         <v>150</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>209</v>
@@ -3441,32 +3575,35 @@
       <c r="E37" s="3">
         <v>1</v>
       </c>
-      <c r="F37" s="2" t="s">
-        <v>208</v>
+      <c r="F37" s="2">
+        <v>1</v>
       </c>
       <c r="G37" s="3">
         <v>3</v>
       </c>
-      <c r="H37" s="2" t="s">
-        <v>212</v>
+      <c r="H37" s="2">
+        <v>1</v>
       </c>
       <c r="I37" s="3">
         <v>3</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="N37" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="O37" s="2" t="s">
-        <v>208</v>
+        <v>218</v>
+      </c>
+      <c r="L37" s="4">
+        <v>1</v>
+      </c>
+      <c r="M37" s="4">
+        <v>0</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="O37" s="6" t="s">
+        <v>259</v>
       </c>
       <c r="P37" s="2" t="s">
         <v>208</v>
@@ -3495,7 +3632,7 @@
         <v>151</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>209</v>
@@ -3503,32 +3640,35 @@
       <c r="E38" s="3">
         <v>1</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>208</v>
+      <c r="F38" s="2">
+        <v>1</v>
       </c>
       <c r="G38" s="3">
         <v>3</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>212</v>
+      <c r="H38" s="2">
+        <v>1</v>
       </c>
       <c r="I38" s="3">
         <v>3</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>208</v>
+        <v>218</v>
+      </c>
+      <c r="L38" s="4">
+        <v>1</v>
+      </c>
+      <c r="M38" s="4">
+        <v>0</v>
+      </c>
+      <c r="N38" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="O38" s="6" t="s">
+        <v>259</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>208</v>
@@ -3557,7 +3697,7 @@
         <v>152</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>209</v>
@@ -3565,32 +3705,35 @@
       <c r="E39" s="3">
         <v>1</v>
       </c>
-      <c r="F39" s="2" t="s">
-        <v>208</v>
+      <c r="F39" s="2">
+        <v>1</v>
       </c>
       <c r="G39" s="3">
         <v>3</v>
       </c>
-      <c r="H39" s="2" t="s">
-        <v>212</v>
+      <c r="H39" s="2">
+        <v>1</v>
       </c>
       <c r="I39" s="3">
         <v>3</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="N39" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="O39" s="2" t="s">
-        <v>208</v>
+        <v>218</v>
+      </c>
+      <c r="L39" s="4">
+        <v>1</v>
+      </c>
+      <c r="M39" s="4">
+        <v>0</v>
+      </c>
+      <c r="N39" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="O39" s="6" t="s">
+        <v>259</v>
       </c>
       <c r="P39" s="2" t="s">
         <v>208</v>
@@ -3619,7 +3762,7 @@
         <v>153</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>209</v>
@@ -3627,32 +3770,35 @@
       <c r="E40" s="3">
         <v>1</v>
       </c>
-      <c r="F40" s="2" t="s">
-        <v>208</v>
+      <c r="F40" s="2">
+        <v>1</v>
       </c>
       <c r="G40" s="3">
         <v>3</v>
       </c>
-      <c r="H40" s="2" t="s">
-        <v>212</v>
+      <c r="H40" s="2">
+        <v>1</v>
       </c>
       <c r="I40" s="3">
         <v>3</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="N40" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="O40" s="2" t="s">
-        <v>208</v>
+        <v>218</v>
+      </c>
+      <c r="L40" s="4">
+        <v>1</v>
+      </c>
+      <c r="M40" s="4">
+        <v>0</v>
+      </c>
+      <c r="N40" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="O40" s="6" t="s">
+        <v>259</v>
       </c>
       <c r="P40" s="2" t="s">
         <v>208</v>
@@ -3681,7 +3827,7 @@
         <v>154</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>209</v>
@@ -3689,32 +3835,35 @@
       <c r="E41" s="3">
         <v>1</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>208</v>
+      <c r="F41" s="2">
+        <v>1</v>
       </c>
       <c r="G41" s="3">
         <v>3</v>
       </c>
-      <c r="H41" s="2" t="s">
-        <v>212</v>
+      <c r="H41" s="2">
+        <v>1</v>
       </c>
       <c r="I41" s="3">
         <v>3</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="M41" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="N41" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="O41" s="2" t="s">
-        <v>208</v>
+        <v>218</v>
+      </c>
+      <c r="L41" s="4">
+        <v>1</v>
+      </c>
+      <c r="M41" s="4">
+        <v>0</v>
+      </c>
+      <c r="N41" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="O41" s="6" t="s">
+        <v>259</v>
       </c>
       <c r="P41" s="2" t="s">
         <v>208</v>
@@ -3743,7 +3892,7 @@
         <v>155</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>209</v>
@@ -3751,32 +3900,35 @@
       <c r="E42" s="3">
         <v>1</v>
       </c>
-      <c r="F42" s="2" t="s">
-        <v>208</v>
+      <c r="F42" s="2">
+        <v>1</v>
       </c>
       <c r="G42" s="3">
         <v>3</v>
       </c>
-      <c r="H42" s="2" t="s">
-        <v>212</v>
+      <c r="H42" s="2">
+        <v>1</v>
       </c>
       <c r="I42" s="3">
         <v>3</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="N42" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="O42" s="2" t="s">
-        <v>208</v>
+        <v>218</v>
+      </c>
+      <c r="L42" s="4">
+        <v>1</v>
+      </c>
+      <c r="M42" s="4">
+        <v>0</v>
+      </c>
+      <c r="N42" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="O42" s="6" t="s">
+        <v>259</v>
       </c>
       <c r="P42" s="2" t="s">
         <v>208</v>
@@ -3805,7 +3957,7 @@
         <v>156</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>209</v>
@@ -3813,32 +3965,35 @@
       <c r="E43" s="3">
         <v>1</v>
       </c>
-      <c r="F43" s="2" t="s">
-        <v>208</v>
+      <c r="F43" s="2">
+        <v>1</v>
       </c>
       <c r="G43" s="3">
         <v>3</v>
       </c>
-      <c r="H43" s="2" t="s">
-        <v>212</v>
+      <c r="H43" s="2">
+        <v>1</v>
       </c>
       <c r="I43" s="3">
         <v>3</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="M43" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="N43" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="O43" s="2" t="s">
-        <v>208</v>
+        <v>218</v>
+      </c>
+      <c r="L43" s="4">
+        <v>1</v>
+      </c>
+      <c r="M43" s="4">
+        <v>0</v>
+      </c>
+      <c r="N43" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="O43" s="6" t="s">
+        <v>259</v>
       </c>
       <c r="P43" s="2" t="s">
         <v>208</v>
@@ -3867,7 +4022,7 @@
         <v>157</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>209</v>
@@ -3875,32 +4030,35 @@
       <c r="E44" s="3">
         <v>1</v>
       </c>
-      <c r="F44" s="2" t="s">
-        <v>208</v>
+      <c r="F44" s="2">
+        <v>1</v>
       </c>
       <c r="G44" s="3">
         <v>3</v>
       </c>
-      <c r="H44" s="2" t="s">
-        <v>212</v>
+      <c r="H44" s="2">
+        <v>1</v>
       </c>
       <c r="I44" s="3">
         <v>3</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="M44" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="N44" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="O44" s="2" t="s">
-        <v>208</v>
+        <v>218</v>
+      </c>
+      <c r="L44" s="4">
+        <v>1</v>
+      </c>
+      <c r="M44" s="4">
+        <v>0</v>
+      </c>
+      <c r="N44" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="O44" s="6" t="s">
+        <v>259</v>
       </c>
       <c r="P44" s="2" t="s">
         <v>208</v>
@@ -3929,7 +4087,7 @@
         <v>158</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>209</v>
@@ -3937,32 +4095,35 @@
       <c r="E45" s="3">
         <v>1</v>
       </c>
-      <c r="F45" s="2" t="s">
-        <v>208</v>
+      <c r="F45" s="2">
+        <v>1</v>
       </c>
       <c r="G45" s="3">
         <v>3</v>
       </c>
-      <c r="H45" s="2" t="s">
-        <v>212</v>
+      <c r="H45" s="2">
+        <v>1</v>
       </c>
       <c r="I45" s="3">
         <v>3</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="M45" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="N45" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="O45" s="2" t="s">
-        <v>208</v>
+        <v>218</v>
+      </c>
+      <c r="L45" s="4">
+        <v>1</v>
+      </c>
+      <c r="M45" s="4">
+        <v>0</v>
+      </c>
+      <c r="N45" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="O45" s="6" t="s">
+        <v>259</v>
       </c>
       <c r="P45" s="2" t="s">
         <v>208</v>
@@ -3991,7 +4152,7 @@
         <v>159</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>209</v>
@@ -3999,32 +4160,35 @@
       <c r="E46" s="3">
         <v>1</v>
       </c>
-      <c r="F46" s="2" t="s">
-        <v>208</v>
+      <c r="F46" s="2">
+        <v>1</v>
       </c>
       <c r="G46" s="3">
         <v>3</v>
       </c>
-      <c r="H46" s="2" t="s">
-        <v>212</v>
+      <c r="H46" s="2">
+        <v>1</v>
       </c>
       <c r="I46" s="3">
         <v>3</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="M46" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="N46" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="O46" s="2" t="s">
-        <v>208</v>
+        <v>218</v>
+      </c>
+      <c r="L46" s="4">
+        <v>1</v>
+      </c>
+      <c r="M46" s="4">
+        <v>0</v>
+      </c>
+      <c r="N46" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="O46" s="6" t="s">
+        <v>259</v>
       </c>
       <c r="P46" s="2" t="s">
         <v>208</v>
@@ -4053,7 +4217,7 @@
         <v>160</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>209</v>
@@ -4061,32 +4225,35 @@
       <c r="E47" s="3">
         <v>1</v>
       </c>
-      <c r="F47" s="2" t="s">
-        <v>208</v>
+      <c r="F47" s="2">
+        <v>1</v>
       </c>
       <c r="G47" s="3">
         <v>3</v>
       </c>
-      <c r="H47" s="2" t="s">
-        <v>212</v>
+      <c r="H47" s="2">
+        <v>1</v>
       </c>
       <c r="I47" s="3">
         <v>3</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="M47" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="N47" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="O47" s="2" t="s">
-        <v>208</v>
+        <v>218</v>
+      </c>
+      <c r="L47" s="4">
+        <v>1</v>
+      </c>
+      <c r="M47" s="4">
+        <v>0</v>
+      </c>
+      <c r="N47" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="O47" s="6" t="s">
+        <v>259</v>
       </c>
       <c r="P47" s="2" t="s">
         <v>208</v>
@@ -4115,7 +4282,7 @@
         <v>161</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>209</v>
@@ -4123,32 +4290,35 @@
       <c r="E48" s="3">
         <v>1</v>
       </c>
-      <c r="F48" s="2" t="s">
-        <v>208</v>
+      <c r="F48" s="2">
+        <v>1</v>
       </c>
       <c r="G48" s="3">
         <v>3</v>
       </c>
-      <c r="H48" s="2" t="s">
-        <v>212</v>
+      <c r="H48" s="2">
+        <v>1</v>
       </c>
       <c r="I48" s="3">
         <v>3</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="M48" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="N48" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="O48" s="2" t="s">
-        <v>208</v>
+        <v>218</v>
+      </c>
+      <c r="L48" s="4">
+        <v>1</v>
+      </c>
+      <c r="M48" s="4">
+        <v>0</v>
+      </c>
+      <c r="N48" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="O48" s="6" t="s">
+        <v>259</v>
       </c>
       <c r="P48" s="2" t="s">
         <v>208</v>
@@ -4177,7 +4347,7 @@
         <v>162</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>209</v>
@@ -4185,32 +4355,35 @@
       <c r="E49" s="3">
         <v>1</v>
       </c>
-      <c r="F49" s="2" t="s">
-        <v>208</v>
+      <c r="F49" s="2">
+        <v>1</v>
       </c>
       <c r="G49" s="3">
         <v>3</v>
       </c>
-      <c r="H49" s="2" t="s">
-        <v>212</v>
+      <c r="H49" s="2">
+        <v>1</v>
       </c>
       <c r="I49" s="3">
         <v>3</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="M49" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="N49" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="O49" s="2" t="s">
-        <v>208</v>
+        <v>218</v>
+      </c>
+      <c r="L49" s="4">
+        <v>1</v>
+      </c>
+      <c r="M49" s="4">
+        <v>0</v>
+      </c>
+      <c r="N49" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="O49" s="6" t="s">
+        <v>259</v>
       </c>
       <c r="P49" s="2" t="s">
         <v>208</v>
@@ -4239,7 +4412,7 @@
         <v>163</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>209</v>
@@ -4247,32 +4420,35 @@
       <c r="E50" s="3">
         <v>1</v>
       </c>
-      <c r="F50" s="2" t="s">
-        <v>208</v>
+      <c r="F50" s="2">
+        <v>1</v>
       </c>
       <c r="G50" s="3">
         <v>3</v>
       </c>
-      <c r="H50" s="2" t="s">
-        <v>212</v>
+      <c r="H50" s="2">
+        <v>1</v>
       </c>
       <c r="I50" s="3">
         <v>3</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="M50" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="N50" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="O50" s="2" t="s">
-        <v>208</v>
+        <v>218</v>
+      </c>
+      <c r="L50" s="4">
+        <v>1</v>
+      </c>
+      <c r="M50" s="4">
+        <v>0</v>
+      </c>
+      <c r="N50" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="O50" s="6" t="s">
+        <v>259</v>
       </c>
       <c r="P50" s="2" t="s">
         <v>208</v>
@@ -4301,7 +4477,7 @@
         <v>164</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>209</v>
@@ -4309,32 +4485,35 @@
       <c r="E51" s="3">
         <v>1</v>
       </c>
-      <c r="F51" s="2" t="s">
-        <v>208</v>
+      <c r="F51" s="2">
+        <v>1</v>
       </c>
       <c r="G51" s="3">
         <v>3</v>
       </c>
-      <c r="H51" s="2" t="s">
-        <v>212</v>
+      <c r="H51" s="2">
+        <v>1</v>
       </c>
       <c r="I51" s="3">
         <v>3</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="M51" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="N51" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="O51" s="2" t="s">
-        <v>208</v>
+        <v>218</v>
+      </c>
+      <c r="L51" s="4">
+        <v>1</v>
+      </c>
+      <c r="M51" s="4">
+        <v>0</v>
+      </c>
+      <c r="N51" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="O51" s="6" t="s">
+        <v>259</v>
       </c>
       <c r="P51" s="2" t="s">
         <v>208</v>
@@ -4363,7 +4542,7 @@
         <v>165</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>209</v>
@@ -4371,32 +4550,35 @@
       <c r="E52" s="3">
         <v>1</v>
       </c>
-      <c r="F52" s="2" t="s">
-        <v>208</v>
+      <c r="F52" s="2">
+        <v>1</v>
       </c>
       <c r="G52" s="3">
         <v>3</v>
       </c>
-      <c r="H52" s="2" t="s">
-        <v>212</v>
+      <c r="H52" s="2">
+        <v>1</v>
       </c>
       <c r="I52" s="3">
         <v>3</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="M52" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="N52" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="O52" s="2" t="s">
-        <v>208</v>
+        <v>218</v>
+      </c>
+      <c r="L52" s="4">
+        <v>1</v>
+      </c>
+      <c r="M52" s="4">
+        <v>0</v>
+      </c>
+      <c r="N52" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="O52" s="6" t="s">
+        <v>259</v>
       </c>
       <c r="P52" s="2" t="s">
         <v>208</v>
@@ -4425,7 +4607,7 @@
         <v>166</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>209</v>
@@ -4433,32 +4615,35 @@
       <c r="E53" s="3">
         <v>1</v>
       </c>
-      <c r="F53" s="2" t="s">
-        <v>208</v>
+      <c r="F53" s="2">
+        <v>1</v>
       </c>
       <c r="G53" s="3">
         <v>3</v>
       </c>
-      <c r="H53" s="2" t="s">
-        <v>212</v>
+      <c r="H53" s="2">
+        <v>1</v>
       </c>
       <c r="I53" s="3">
         <v>3</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="M53" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="N53" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="O53" s="2" t="s">
-        <v>208</v>
+        <v>218</v>
+      </c>
+      <c r="L53" s="4">
+        <v>1</v>
+      </c>
+      <c r="M53" s="4">
+        <v>0</v>
+      </c>
+      <c r="N53" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="O53" s="6" t="s">
+        <v>259</v>
       </c>
       <c r="P53" s="2" t="s">
         <v>208</v>
@@ -4487,7 +4672,7 @@
         <v>167</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>209</v>
@@ -4495,32 +4680,35 @@
       <c r="E54" s="3">
         <v>1</v>
       </c>
-      <c r="F54" s="2" t="s">
-        <v>208</v>
+      <c r="F54" s="2">
+        <v>1</v>
       </c>
       <c r="G54" s="3">
         <v>3</v>
       </c>
-      <c r="H54" s="2" t="s">
-        <v>212</v>
+      <c r="H54" s="2">
+        <v>1</v>
       </c>
       <c r="I54" s="3">
         <v>3</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="M54" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="N54" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="O54" s="2" t="s">
-        <v>208</v>
+        <v>218</v>
+      </c>
+      <c r="L54" s="4">
+        <v>1</v>
+      </c>
+      <c r="M54" s="4">
+        <v>0</v>
+      </c>
+      <c r="N54" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="O54" s="6" t="s">
+        <v>259</v>
       </c>
       <c r="P54" s="2" t="s">
         <v>208</v>
@@ -4549,7 +4737,7 @@
         <v>168</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>209</v>
@@ -4557,32 +4745,35 @@
       <c r="E55" s="3">
         <v>1</v>
       </c>
-      <c r="F55" s="2" t="s">
-        <v>208</v>
+      <c r="F55" s="2">
+        <v>1</v>
       </c>
       <c r="G55" s="3">
         <v>3</v>
       </c>
-      <c r="H55" s="2" t="s">
-        <v>212</v>
+      <c r="H55" s="2">
+        <v>1</v>
       </c>
       <c r="I55" s="3">
         <v>3</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="M55" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="N55" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="O55" s="2" t="s">
-        <v>208</v>
+        <v>218</v>
+      </c>
+      <c r="L55" s="4">
+        <v>1</v>
+      </c>
+      <c r="M55" s="4">
+        <v>0</v>
+      </c>
+      <c r="N55" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="O55" s="6" t="s">
+        <v>259</v>
       </c>
       <c r="P55" s="2" t="s">
         <v>208</v>
@@ -4611,7 +4802,7 @@
         <v>169</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>209</v>
@@ -4619,32 +4810,35 @@
       <c r="E56" s="3">
         <v>1</v>
       </c>
-      <c r="F56" s="2" t="s">
-        <v>208</v>
+      <c r="F56" s="2">
+        <v>1</v>
       </c>
       <c r="G56" s="3">
         <v>3</v>
       </c>
-      <c r="H56" s="2" t="s">
-        <v>212</v>
+      <c r="H56" s="2">
+        <v>1</v>
       </c>
       <c r="I56" s="3">
         <v>3</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="M56" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="N56" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="O56" s="2" t="s">
-        <v>208</v>
+        <v>218</v>
+      </c>
+      <c r="L56" s="4">
+        <v>1</v>
+      </c>
+      <c r="M56" s="4">
+        <v>0</v>
+      </c>
+      <c r="N56" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="O56" s="6" t="s">
+        <v>259</v>
       </c>
       <c r="P56" s="2" t="s">
         <v>208</v>
@@ -4672,8 +4866,8 @@
       <c r="B57" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>208</v>
+      <c r="C57" s="5" t="s">
+        <v>255</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>209</v>
@@ -4681,32 +4875,35 @@
       <c r="E57" s="3">
         <v>1</v>
       </c>
-      <c r="F57" s="2" t="s">
-        <v>208</v>
+      <c r="F57" s="2">
+        <v>1</v>
       </c>
       <c r="G57" s="3">
         <v>6</v>
       </c>
-      <c r="H57" s="2" t="s">
-        <v>212</v>
+      <c r="H57" s="2">
+        <v>1</v>
       </c>
       <c r="I57" s="3">
         <v>6</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="M57" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="N57" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="O57" s="2" t="s">
-        <v>208</v>
+        <v>218</v>
+      </c>
+      <c r="L57" s="4">
+        <v>1</v>
+      </c>
+      <c r="M57" s="4">
+        <v>0</v>
+      </c>
+      <c r="N57" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="O57" s="6" t="s">
+        <v>259</v>
       </c>
       <c r="P57" s="2" t="s">
         <v>208</v>
@@ -4734,8 +4931,8 @@
       <c r="B58" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>208</v>
+      <c r="C58" s="5" t="s">
+        <v>255</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>209</v>
@@ -4743,32 +4940,35 @@
       <c r="E58" s="3">
         <v>1</v>
       </c>
-      <c r="F58" s="2" t="s">
-        <v>208</v>
+      <c r="F58" s="2">
+        <v>1</v>
       </c>
       <c r="G58" s="3">
         <v>3</v>
       </c>
-      <c r="H58" s="2" t="s">
-        <v>212</v>
+      <c r="H58" s="2">
+        <v>1</v>
       </c>
       <c r="I58" s="3">
         <v>4</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="M58" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="N58" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="O58" s="2" t="s">
-        <v>208</v>
+        <v>218</v>
+      </c>
+      <c r="L58" s="4">
+        <v>1</v>
+      </c>
+      <c r="M58" s="4">
+        <v>0</v>
+      </c>
+      <c r="N58" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="O58" s="6" t="s">
+        <v>259</v>
       </c>
       <c r="P58" s="2" t="s">
         <v>208</v>
@@ -4796,8 +4996,8 @@
       <c r="B59" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>208</v>
+      <c r="C59" s="5" t="s">
+        <v>255</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>209</v>
@@ -4805,32 +5005,35 @@
       <c r="E59" s="3">
         <v>1</v>
       </c>
-      <c r="F59" s="2" t="s">
-        <v>208</v>
+      <c r="F59" s="2">
+        <v>0</v>
       </c>
       <c r="G59" s="3">
         <v>9</v>
       </c>
-      <c r="H59" s="2" t="s">
-        <v>212</v>
+      <c r="H59" s="2">
+        <v>1</v>
       </c>
       <c r="I59" s="3">
         <v>9</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="M59" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="N59" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="O59" s="2" t="s">
-        <v>208</v>
+        <v>218</v>
+      </c>
+      <c r="L59" s="4">
+        <v>1</v>
+      </c>
+      <c r="M59" s="4">
+        <v>0</v>
+      </c>
+      <c r="N59" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="O59" s="6" t="s">
+        <v>259</v>
       </c>
       <c r="P59" s="2" t="s">
         <v>208</v>
@@ -4858,8 +5061,8 @@
       <c r="B60" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>208</v>
+      <c r="C60" s="5" t="s">
+        <v>255</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>210</v>
@@ -4867,26 +5070,29 @@
       <c r="E60" s="3">
         <v>2</v>
       </c>
-      <c r="F60" s="2" t="s">
-        <v>208</v>
+      <c r="F60" s="2">
+        <v>0</v>
       </c>
       <c r="G60" s="3">
         <v>30</v>
       </c>
-      <c r="H60" s="2" t="s">
-        <v>212</v>
+      <c r="H60" s="2">
+        <v>1</v>
       </c>
       <c r="I60" s="3">
         <v>31</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="M60" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
+      </c>
+      <c r="L60" s="4">
+        <v>0</v>
+      </c>
+      <c r="M60" s="4">
+        <v>0</v>
       </c>
       <c r="N60" s="2" t="s">
         <v>208</v>
@@ -4921,7 +5127,7 @@
         <v>174</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>210</v>
@@ -4929,23 +5135,26 @@
       <c r="E61" s="3">
         <v>8</v>
       </c>
-      <c r="F61" s="2" t="s">
-        <v>208</v>
+      <c r="F61" s="2">
+        <v>1</v>
       </c>
       <c r="G61" s="3">
         <v>1</v>
       </c>
-      <c r="H61" s="2" t="s">
-        <v>211</v>
+      <c r="H61" s="2">
+        <v>0</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="M61" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
+      </c>
+      <c r="L61" s="4">
+        <v>0</v>
+      </c>
+      <c r="M61" s="4">
+        <v>0</v>
       </c>
       <c r="N61" s="2" t="s">
         <v>208</v>
@@ -4979,8 +5188,8 @@
       <c r="B62" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>208</v>
+      <c r="C62" s="5" t="s">
+        <v>255</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>210</v>
@@ -4988,26 +5197,29 @@
       <c r="E62" s="3">
         <v>2</v>
       </c>
-      <c r="F62" s="2" t="s">
-        <v>208</v>
+      <c r="F62" s="2">
+        <v>0</v>
       </c>
       <c r="G62" s="3">
         <v>30</v>
       </c>
-      <c r="H62" s="2" t="s">
-        <v>212</v>
+      <c r="H62" s="2">
+        <v>1</v>
       </c>
       <c r="I62" s="3">
         <v>31</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="M62" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
+      </c>
+      <c r="L62" s="4">
+        <v>0</v>
+      </c>
+      <c r="M62" s="4">
+        <v>0</v>
       </c>
       <c r="N62" s="2" t="s">
         <v>208</v>
@@ -5042,7 +5254,7 @@
         <v>175</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>210</v>
@@ -5050,26 +5262,29 @@
       <c r="E63" s="3">
         <v>2</v>
       </c>
-      <c r="F63" s="2" t="s">
-        <v>208</v>
+      <c r="F63" s="2">
+        <v>1</v>
       </c>
       <c r="G63" s="3">
         <v>16</v>
       </c>
-      <c r="H63" s="2" t="s">
-        <v>212</v>
+      <c r="H63" s="2">
+        <v>1</v>
       </c>
       <c r="I63" s="3">
         <v>16</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="M63" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
+      </c>
+      <c r="L63" s="4">
+        <v>0</v>
+      </c>
+      <c r="M63" s="4">
+        <v>0</v>
       </c>
       <c r="N63" s="2" t="s">
         <v>208</v>
@@ -5104,7 +5319,7 @@
         <v>176</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>210</v>
@@ -5112,26 +5327,29 @@
       <c r="E64" s="3">
         <v>1</v>
       </c>
-      <c r="F64" s="2" t="s">
-        <v>208</v>
+      <c r="F64" s="2">
+        <v>1</v>
       </c>
       <c r="G64" s="3">
         <v>2</v>
       </c>
-      <c r="H64" s="2" t="s">
-        <v>212</v>
+      <c r="H64" s="2">
+        <v>1</v>
       </c>
       <c r="I64" s="3">
         <v>2</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="M64" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
+      </c>
+      <c r="L64" s="4">
+        <v>0</v>
+      </c>
+      <c r="M64" s="4">
+        <v>0</v>
       </c>
       <c r="N64" s="2" t="s">
         <v>208</v>
@@ -5166,7 +5384,7 @@
         <v>177</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>210</v>
@@ -5174,26 +5392,29 @@
       <c r="E65" s="3">
         <v>3</v>
       </c>
-      <c r="F65" s="2" t="s">
-        <v>208</v>
+      <c r="F65" s="2">
+        <v>0</v>
       </c>
       <c r="G65" s="3">
         <v>101</v>
       </c>
-      <c r="H65" s="2" t="s">
-        <v>212</v>
+      <c r="H65" s="2">
+        <v>1</v>
       </c>
       <c r="I65" s="3">
         <v>101</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="M65" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
+      </c>
+      <c r="L65" s="4">
+        <v>0</v>
+      </c>
+      <c r="M65" s="4">
+        <v>0</v>
       </c>
       <c r="N65" s="2" t="s">
         <v>208</v>
@@ -5228,7 +5449,7 @@
         <v>178</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>210</v>
@@ -5236,26 +5457,29 @@
       <c r="E66" s="3">
         <v>1</v>
       </c>
-      <c r="F66" s="2" t="s">
-        <v>208</v>
+      <c r="F66" s="2">
+        <v>1</v>
       </c>
       <c r="G66" s="3">
         <v>2</v>
       </c>
-      <c r="H66" s="2" t="s">
-        <v>212</v>
+      <c r="H66" s="2">
+        <v>1</v>
       </c>
       <c r="I66" s="3">
         <v>2</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="M66" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
+      </c>
+      <c r="L66" s="4">
+        <v>0</v>
+      </c>
+      <c r="M66" s="4">
+        <v>0</v>
       </c>
       <c r="N66" s="2" t="s">
         <v>208</v>
@@ -5290,7 +5514,7 @@
         <v>179</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>210</v>
@@ -5298,26 +5522,29 @@
       <c r="E67" s="3">
         <v>1</v>
       </c>
-      <c r="F67" s="2" t="s">
-        <v>208</v>
+      <c r="F67" s="2">
+        <v>1</v>
       </c>
       <c r="G67" s="3">
         <v>2</v>
       </c>
-      <c r="H67" s="2" t="s">
-        <v>212</v>
+      <c r="H67" s="2">
+        <v>1</v>
       </c>
       <c r="I67" s="3">
         <v>2</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="M67" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
+      </c>
+      <c r="L67" s="4">
+        <v>0</v>
+      </c>
+      <c r="M67" s="4">
+        <v>0</v>
       </c>
       <c r="N67" s="2" t="s">
         <v>208</v>
@@ -5352,7 +5579,7 @@
         <v>180</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>210</v>
@@ -5360,26 +5587,29 @@
       <c r="E68" s="3">
         <v>1</v>
       </c>
-      <c r="F68" s="2" t="s">
-        <v>208</v>
+      <c r="F68" s="2">
+        <v>1</v>
       </c>
       <c r="G68" s="3">
         <v>2</v>
       </c>
-      <c r="H68" s="2" t="s">
-        <v>212</v>
+      <c r="H68" s="2">
+        <v>1</v>
       </c>
       <c r="I68" s="3">
         <v>2</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="M68" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
+      </c>
+      <c r="L68" s="4">
+        <v>0</v>
+      </c>
+      <c r="M68" s="4">
+        <v>0</v>
       </c>
       <c r="N68" s="2" t="s">
         <v>208</v>
@@ -5414,7 +5644,7 @@
         <v>181</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>210</v>
@@ -5422,26 +5652,29 @@
       <c r="E69" s="3">
         <v>1</v>
       </c>
-      <c r="F69" s="2" t="s">
-        <v>208</v>
+      <c r="F69" s="2">
+        <v>1</v>
       </c>
       <c r="G69" s="3">
         <v>2</v>
       </c>
-      <c r="H69" s="2" t="s">
-        <v>212</v>
+      <c r="H69" s="2">
+        <v>1</v>
       </c>
       <c r="I69" s="3">
         <v>2</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="M69" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
+      </c>
+      <c r="L69" s="4">
+        <v>0</v>
+      </c>
+      <c r="M69" s="4">
+        <v>0</v>
       </c>
       <c r="N69" s="2" t="s">
         <v>208</v>
@@ -5476,7 +5709,7 @@
         <v>182</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>210</v>
@@ -5484,26 +5717,29 @@
       <c r="E70" s="3">
         <v>1</v>
       </c>
-      <c r="F70" s="2" t="s">
-        <v>208</v>
+      <c r="F70" s="2">
+        <v>1</v>
       </c>
       <c r="G70" s="3">
         <v>2</v>
       </c>
-      <c r="H70" s="2" t="s">
-        <v>212</v>
+      <c r="H70" s="2">
+        <v>1</v>
       </c>
       <c r="I70" s="3">
         <v>2</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="M70" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
+      </c>
+      <c r="L70" s="4">
+        <v>0</v>
+      </c>
+      <c r="M70" s="4">
+        <v>0</v>
       </c>
       <c r="N70" s="2" t="s">
         <v>208</v>
@@ -5538,7 +5774,7 @@
         <v>183</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>210</v>
@@ -5546,26 +5782,29 @@
       <c r="E71" s="3">
         <v>1</v>
       </c>
-      <c r="F71" s="2" t="s">
-        <v>208</v>
+      <c r="F71" s="2">
+        <v>1</v>
       </c>
       <c r="G71" s="3">
         <v>9</v>
       </c>
-      <c r="H71" s="2" t="s">
-        <v>212</v>
+      <c r="H71" s="2">
+        <v>1</v>
       </c>
       <c r="I71" s="3">
         <v>9</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="M71" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
+      </c>
+      <c r="L71" s="4">
+        <v>0</v>
+      </c>
+      <c r="M71" s="4">
+        <v>0</v>
       </c>
       <c r="N71" s="2" t="s">
         <v>208</v>
@@ -5600,7 +5839,7 @@
         <v>184</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>210</v>
@@ -5608,26 +5847,29 @@
       <c r="E72" s="3">
         <v>1</v>
       </c>
-      <c r="F72" s="2" t="s">
-        <v>208</v>
+      <c r="F72" s="2">
+        <v>1</v>
       </c>
       <c r="G72" s="3">
         <v>4</v>
       </c>
-      <c r="H72" s="2" t="s">
-        <v>212</v>
+      <c r="H72" s="2">
+        <v>1</v>
       </c>
       <c r="I72" s="3">
         <v>4</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="M72" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
+      </c>
+      <c r="L72" s="4">
+        <v>0</v>
+      </c>
+      <c r="M72" s="4">
+        <v>0</v>
       </c>
       <c r="N72" s="2" t="s">
         <v>208</v>
@@ -5662,7 +5904,7 @@
         <v>185</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>210</v>
@@ -5670,26 +5912,29 @@
       <c r="E73" s="3">
         <v>5</v>
       </c>
-      <c r="F73" s="2" t="s">
-        <v>208</v>
+      <c r="F73" s="2">
+        <v>1</v>
       </c>
       <c r="G73" s="3">
         <v>388</v>
       </c>
-      <c r="H73" s="2" t="s">
-        <v>212</v>
+      <c r="H73" s="2">
+        <v>1</v>
       </c>
       <c r="I73" s="3">
         <v>388</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="M73" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
+      </c>
+      <c r="L73" s="4">
+        <v>0</v>
+      </c>
+      <c r="M73" s="4">
+        <v>0</v>
       </c>
       <c r="N73" s="2" t="s">
         <v>208</v>
@@ -5723,8 +5968,8 @@
       <c r="B74" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>208</v>
+      <c r="C74" s="5" t="s">
+        <v>255</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>210</v>
@@ -5732,26 +5977,29 @@
       <c r="E74" s="3">
         <v>4</v>
       </c>
-      <c r="F74" s="2" t="s">
-        <v>208</v>
+      <c r="F74" s="2">
+        <v>0</v>
       </c>
       <c r="G74" s="3">
         <v>79</v>
       </c>
-      <c r="H74" s="2" t="s">
-        <v>212</v>
+      <c r="H74" s="2">
+        <v>1</v>
       </c>
       <c r="I74" s="3">
         <v>79</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="M74" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
+      </c>
+      <c r="L74" s="4">
+        <v>0</v>
+      </c>
+      <c r="M74" s="4">
+        <v>0</v>
       </c>
       <c r="N74" s="2" t="s">
         <v>208</v>
@@ -5786,7 +6034,7 @@
         <v>187</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>210</v>
@@ -5794,26 +6042,29 @@
       <c r="E75" s="3">
         <v>1</v>
       </c>
-      <c r="F75" s="2" t="s">
-        <v>208</v>
+      <c r="F75" s="2">
+        <v>1</v>
       </c>
       <c r="G75" s="3">
         <v>4</v>
       </c>
-      <c r="H75" s="2" t="s">
-        <v>212</v>
+      <c r="H75" s="2">
+        <v>1</v>
       </c>
       <c r="I75" s="3">
         <v>4</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="M75" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
+      </c>
+      <c r="L75" s="4">
+        <v>0</v>
+      </c>
+      <c r="M75" s="4">
+        <v>0</v>
       </c>
       <c r="N75" s="2" t="s">
         <v>208</v>
@@ -5848,7 +6099,7 @@
         <v>188</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>210</v>
@@ -5856,32 +6107,35 @@
       <c r="E76" s="3">
         <v>1</v>
       </c>
-      <c r="F76" s="2" t="s">
-        <v>208</v>
+      <c r="F76" s="2">
+        <v>1</v>
       </c>
       <c r="G76" s="3">
         <v>5</v>
       </c>
-      <c r="H76" s="2" t="s">
-        <v>212</v>
+      <c r="H76" s="2">
+        <v>1</v>
       </c>
       <c r="I76" s="3">
         <v>5</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="M76" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="N76" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="O76" s="2" t="s">
-        <v>208</v>
+        <v>218</v>
+      </c>
+      <c r="L76" s="4">
+        <v>1</v>
+      </c>
+      <c r="M76" s="4">
+        <v>0</v>
+      </c>
+      <c r="N76" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="O76" s="6" t="s">
+        <v>261</v>
       </c>
       <c r="P76" s="2" t="s">
         <v>208</v>
@@ -5910,7 +6164,7 @@
         <v>189</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>210</v>
@@ -5918,32 +6172,35 @@
       <c r="E77" s="3">
         <v>5</v>
       </c>
-      <c r="F77" s="2" t="s">
-        <v>208</v>
+      <c r="F77" s="2">
+        <v>1</v>
       </c>
       <c r="G77" s="3">
         <v>372</v>
       </c>
-      <c r="H77" s="2" t="s">
-        <v>212</v>
+      <c r="H77" s="2">
+        <v>1</v>
       </c>
       <c r="I77" s="3">
         <v>372</v>
       </c>
       <c r="J77" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="K77" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="K77" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="M77" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="N77" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="O77" s="2" t="s">
-        <v>208</v>
+      <c r="L77" s="4">
+        <v>1</v>
+      </c>
+      <c r="M77" s="4">
+        <v>0</v>
+      </c>
+      <c r="N77" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="O77" s="6" t="s">
+        <v>261</v>
       </c>
       <c r="P77" s="2" t="s">
         <v>208</v>
@@ -5972,7 +6229,7 @@
         <v>190</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>210</v>
@@ -5980,32 +6237,35 @@
       <c r="E78" s="3">
         <v>1</v>
       </c>
-      <c r="F78" s="2" t="s">
-        <v>208</v>
+      <c r="F78" s="2">
+        <v>1</v>
       </c>
       <c r="G78" s="3">
         <v>3</v>
       </c>
-      <c r="H78" s="2" t="s">
-        <v>212</v>
+      <c r="H78" s="2">
+        <v>1</v>
       </c>
       <c r="I78" s="3">
         <v>3</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="M78" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="N78" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="O78" s="2" t="s">
-        <v>208</v>
+        <v>218</v>
+      </c>
+      <c r="L78" s="4">
+        <v>1</v>
+      </c>
+      <c r="M78" s="4">
+        <v>0</v>
+      </c>
+      <c r="N78" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="O78" s="6" t="s">
+        <v>261</v>
       </c>
       <c r="P78" s="2" t="s">
         <v>208</v>
@@ -6034,7 +6294,7 @@
         <v>191</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>210</v>
@@ -6042,32 +6302,35 @@
       <c r="E79" s="3">
         <v>2</v>
       </c>
-      <c r="F79" s="2" t="s">
-        <v>208</v>
+      <c r="F79" s="2">
+        <v>1</v>
       </c>
       <c r="G79" s="3">
         <v>16</v>
       </c>
-      <c r="H79" s="2" t="s">
-        <v>212</v>
+      <c r="H79" s="2">
+        <v>1</v>
       </c>
       <c r="I79" s="3">
         <v>16</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="M79" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="N79" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="O79" s="2" t="s">
-        <v>208</v>
+        <v>218</v>
+      </c>
+      <c r="L79" s="4">
+        <v>1</v>
+      </c>
+      <c r="M79" s="4">
+        <v>0</v>
+      </c>
+      <c r="N79" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="O79" s="6" t="s">
+        <v>261</v>
       </c>
       <c r="P79" s="2" t="s">
         <v>208</v>
@@ -6096,7 +6359,7 @@
         <v>192</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>210</v>
@@ -6104,32 +6367,35 @@
       <c r="E80" s="3">
         <v>1</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>208</v>
+      <c r="F80" s="2">
+        <v>0</v>
       </c>
       <c r="G80" s="3">
         <v>10</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>212</v>
+      <c r="H80" s="2">
+        <v>1</v>
       </c>
       <c r="I80" s="3">
         <v>10</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="M80" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="N80" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="O80" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
+      </c>
+      <c r="L80" s="4">
+        <v>1</v>
+      </c>
+      <c r="M80" s="4">
+        <v>0</v>
+      </c>
+      <c r="N80" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="O80" s="6" t="s">
+        <v>261</v>
       </c>
       <c r="P80" s="2" t="s">
         <v>208</v>
@@ -6158,7 +6424,7 @@
         <v>193</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>210</v>
@@ -6166,32 +6432,35 @@
       <c r="E81" s="3">
         <v>3</v>
       </c>
-      <c r="F81" s="2" t="s">
-        <v>208</v>
+      <c r="F81" s="2">
+        <v>0</v>
       </c>
       <c r="G81" s="3">
         <v>78</v>
       </c>
-      <c r="H81" s="2" t="s">
-        <v>212</v>
+      <c r="H81" s="2">
+        <v>1</v>
       </c>
       <c r="I81" s="3">
         <v>78</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="M81" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="N81" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="O81" s="2" t="s">
-        <v>208</v>
+        <v>218</v>
+      </c>
+      <c r="L81" s="4">
+        <v>1</v>
+      </c>
+      <c r="M81" s="4">
+        <v>0</v>
+      </c>
+      <c r="N81" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="O81" s="6" t="s">
+        <v>261</v>
       </c>
       <c r="P81" s="2" t="s">
         <v>208</v>
@@ -6220,7 +6489,7 @@
         <v>194</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>210</v>
@@ -6228,32 +6497,35 @@
       <c r="E82" s="3">
         <v>1</v>
       </c>
-      <c r="F82" s="2" t="s">
-        <v>208</v>
+      <c r="F82" s="2">
+        <v>1</v>
       </c>
       <c r="G82" s="3">
         <v>7</v>
       </c>
-      <c r="H82" s="2" t="s">
-        <v>212</v>
+      <c r="H82" s="2">
+        <v>1</v>
       </c>
       <c r="I82" s="3">
         <v>7</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="M82" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="N82" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="O82" s="2" t="s">
-        <v>208</v>
+        <v>218</v>
+      </c>
+      <c r="L82" s="4">
+        <v>1</v>
+      </c>
+      <c r="M82" s="4">
+        <v>0</v>
+      </c>
+      <c r="N82" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="O82" s="6" t="s">
+        <v>258</v>
       </c>
       <c r="P82" s="2" t="s">
         <v>208</v>
@@ -6282,7 +6554,7 @@
         <v>195</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>210</v>
@@ -6290,32 +6562,35 @@
       <c r="E83" s="3">
         <v>1</v>
       </c>
-      <c r="F83" s="2" t="s">
-        <v>208</v>
+      <c r="F83" s="2">
+        <v>1</v>
       </c>
       <c r="G83" s="3">
         <v>10</v>
       </c>
-      <c r="H83" s="2" t="s">
-        <v>212</v>
+      <c r="H83" s="2">
+        <v>1</v>
       </c>
       <c r="I83" s="3">
         <v>10</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="M83" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="N83" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="O83" s="2" t="s">
-        <v>208</v>
+        <v>218</v>
+      </c>
+      <c r="L83" s="4">
+        <v>1</v>
+      </c>
+      <c r="M83" s="4">
+        <v>0</v>
+      </c>
+      <c r="N83" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="O83" s="6" t="s">
+        <v>258</v>
       </c>
       <c r="P83" s="2" t="s">
         <v>208</v>
@@ -6344,7 +6619,7 @@
         <v>196</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>210</v>
@@ -6352,32 +6627,35 @@
       <c r="E84" s="3">
         <v>2</v>
       </c>
-      <c r="F84" s="2" t="s">
-        <v>208</v>
+      <c r="F84" s="2">
+        <v>1</v>
       </c>
       <c r="G84" s="3">
         <v>11</v>
       </c>
-      <c r="H84" s="2" t="s">
-        <v>212</v>
+      <c r="H84" s="2">
+        <v>1</v>
       </c>
       <c r="I84" s="3">
         <v>11</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="M84" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="N84" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="O84" s="2" t="s">
-        <v>208</v>
+        <v>218</v>
+      </c>
+      <c r="L84" s="4">
+        <v>1</v>
+      </c>
+      <c r="M84" s="4">
+        <v>0</v>
+      </c>
+      <c r="N84" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="O84" s="6" t="s">
+        <v>258</v>
       </c>
       <c r="P84" s="2" t="s">
         <v>208</v>
@@ -6406,7 +6684,7 @@
         <v>197</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>210</v>
@@ -6414,38 +6692,41 @@
       <c r="E85" s="3">
         <v>1</v>
       </c>
-      <c r="F85" s="2" t="s">
-        <v>208</v>
+      <c r="F85" s="2">
+        <v>1</v>
       </c>
       <c r="G85" s="3">
         <v>6</v>
       </c>
-      <c r="H85" s="2" t="s">
-        <v>212</v>
+      <c r="H85" s="2">
+        <v>1</v>
       </c>
       <c r="I85" s="3">
         <v>6</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="M85" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="N85" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="O85" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="P85" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q85" s="2" t="s">
-        <v>208</v>
+        <v>218</v>
+      </c>
+      <c r="L85" s="4">
+        <v>2</v>
+      </c>
+      <c r="M85" s="4">
+        <v>0</v>
+      </c>
+      <c r="N85" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="O85" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="P85" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q85" s="6" t="s">
+        <v>260</v>
       </c>
       <c r="R85" s="2" t="s">
         <v>208</v>
@@ -6468,7 +6749,7 @@
         <v>198</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>210</v>
@@ -6476,32 +6757,35 @@
       <c r="E86" s="3">
         <v>1</v>
       </c>
-      <c r="F86" s="2" t="s">
-        <v>208</v>
+      <c r="F86" s="2">
+        <v>1</v>
       </c>
       <c r="G86" s="3">
         <v>5</v>
       </c>
-      <c r="H86" s="2" t="s">
-        <v>212</v>
+      <c r="H86" s="2">
+        <v>1</v>
       </c>
       <c r="I86" s="3">
         <v>5</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="M86" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="N86" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="O86" s="2" t="s">
-        <v>208</v>
+        <v>218</v>
+      </c>
+      <c r="L86" s="4">
+        <v>1</v>
+      </c>
+      <c r="M86" s="4">
+        <v>0</v>
+      </c>
+      <c r="N86" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="O86" s="6" t="s">
+        <v>258</v>
       </c>
       <c r="P86" s="2" t="s">
         <v>208</v>
@@ -6530,7 +6814,7 @@
         <v>199</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>210</v>
@@ -6538,38 +6822,41 @@
       <c r="E87" s="3">
         <v>2</v>
       </c>
-      <c r="F87" s="2" t="s">
-        <v>208</v>
+      <c r="F87" s="2">
+        <v>0</v>
       </c>
       <c r="G87" s="3">
         <v>23</v>
       </c>
-      <c r="H87" s="2" t="s">
-        <v>212</v>
+      <c r="H87" s="2">
+        <v>1</v>
       </c>
       <c r="I87" s="3">
         <v>23</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="M87" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="N87" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="O87" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="P87" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q87" s="2" t="s">
-        <v>208</v>
+        <v>213</v>
+      </c>
+      <c r="L87" s="4">
+        <v>2</v>
+      </c>
+      <c r="M87" s="4">
+        <v>0</v>
+      </c>
+      <c r="N87" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="O87" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="P87" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q87" s="2">
+        <v>2</v>
       </c>
       <c r="R87" s="2" t="s">
         <v>208</v>
@@ -6592,7 +6879,7 @@
         <v>200</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>210</v>
@@ -6600,38 +6887,41 @@
       <c r="E88" s="3">
         <v>2</v>
       </c>
-      <c r="F88" s="2" t="s">
-        <v>208</v>
+      <c r="F88" s="2">
+        <v>0</v>
       </c>
       <c r="G88" s="3">
         <v>17</v>
       </c>
-      <c r="H88" s="2" t="s">
-        <v>212</v>
+      <c r="H88" s="2">
+        <v>1</v>
       </c>
       <c r="I88" s="3">
         <v>18</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="M88" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="N88" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="O88" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="P88" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q88" s="2" t="s">
-        <v>208</v>
+        <v>213</v>
+      </c>
+      <c r="L88" s="4">
+        <v>2</v>
+      </c>
+      <c r="M88" s="4">
+        <v>0</v>
+      </c>
+      <c r="N88" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="O88" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="P88" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q88" s="2">
+        <v>2</v>
       </c>
       <c r="R88" s="2" t="s">
         <v>208</v>
@@ -6654,7 +6944,7 @@
         <v>201</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>210</v>
@@ -6662,38 +6952,41 @@
       <c r="E89" s="3">
         <v>2</v>
       </c>
-      <c r="F89" s="2" t="s">
-        <v>208</v>
+      <c r="F89" s="2">
+        <v>0</v>
       </c>
       <c r="G89" s="3">
         <v>13</v>
       </c>
-      <c r="H89" s="2" t="s">
-        <v>212</v>
+      <c r="H89" s="2">
+        <v>1</v>
       </c>
       <c r="I89" s="3">
         <v>13</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="M89" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="N89" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="O89" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="P89" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q89" s="2" t="s">
-        <v>208</v>
+        <v>218</v>
+      </c>
+      <c r="L89" s="4">
+        <v>2</v>
+      </c>
+      <c r="M89" s="4">
+        <v>0</v>
+      </c>
+      <c r="N89" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="O89" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="P89" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q89" s="2">
+        <v>2</v>
       </c>
       <c r="R89" s="2" t="s">
         <v>208</v>
@@ -6716,7 +7009,7 @@
         <v>202</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>210</v>
@@ -6724,38 +7017,41 @@
       <c r="E90" s="3">
         <v>4</v>
       </c>
-      <c r="F90" s="2" t="s">
-        <v>208</v>
+      <c r="F90" s="2">
+        <v>0</v>
       </c>
       <c r="G90" s="3">
         <v>76</v>
       </c>
-      <c r="H90" s="2" t="s">
-        <v>212</v>
+      <c r="H90" s="2">
+        <v>1</v>
       </c>
       <c r="I90" s="3">
         <v>76</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="M90" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="N90" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="O90" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="P90" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q90" s="2" t="s">
-        <v>208</v>
+        <v>218</v>
+      </c>
+      <c r="L90" s="4">
+        <v>2</v>
+      </c>
+      <c r="M90" s="4">
+        <v>0</v>
+      </c>
+      <c r="N90" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="O90" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="P90" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q90" s="2">
+        <v>2</v>
       </c>
       <c r="R90" s="2" t="s">
         <v>208</v>
@@ -6778,7 +7074,7 @@
         <v>203</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>210</v>
@@ -6786,32 +7082,35 @@
       <c r="E91" s="3">
         <v>2</v>
       </c>
-      <c r="F91" s="2" t="s">
-        <v>208</v>
+      <c r="F91" s="2">
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>22</v>
       </c>
-      <c r="H91" s="2" t="s">
-        <v>212</v>
+      <c r="H91" s="2">
+        <v>1</v>
       </c>
       <c r="I91" s="3">
         <v>22</v>
       </c>
       <c r="J91" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="K91" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="K91" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="M91" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="N91" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="O91" s="2" t="s">
-        <v>208</v>
+      <c r="L91" s="4">
+        <v>1</v>
+      </c>
+      <c r="M91" s="4">
+        <v>0</v>
+      </c>
+      <c r="N91" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="O91" s="6" t="s">
+        <v>261</v>
       </c>
       <c r="P91" s="2" t="s">
         <v>208</v>
@@ -6840,7 +7139,7 @@
         <v>204</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>210</v>
@@ -6848,26 +7147,29 @@
       <c r="E92" s="3">
         <v>1</v>
       </c>
-      <c r="F92" s="2" t="s">
-        <v>208</v>
+      <c r="F92" s="2">
+        <v>1</v>
       </c>
       <c r="G92" s="3">
         <v>10</v>
       </c>
-      <c r="H92" s="2" t="s">
-        <v>212</v>
+      <c r="H92" s="2">
+        <v>1</v>
       </c>
       <c r="I92" s="3">
         <v>10</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="M92" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
+      </c>
+      <c r="L92" s="4">
+        <v>0</v>
+      </c>
+      <c r="M92" s="4">
+        <v>0</v>
       </c>
       <c r="N92" s="2" t="s">
         <v>208</v>
@@ -6902,7 +7204,7 @@
         <v>205</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>210</v>
@@ -6910,38 +7212,41 @@
       <c r="E93" s="3">
         <v>2</v>
       </c>
-      <c r="F93" s="2" t="s">
-        <v>208</v>
+      <c r="F93" s="2">
+        <v>1</v>
       </c>
       <c r="G93" s="3">
         <v>30</v>
       </c>
-      <c r="H93" s="2" t="s">
-        <v>212</v>
+      <c r="H93" s="2">
+        <v>1</v>
       </c>
       <c r="I93" s="3">
         <v>30</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="M93" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="N93" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="O93" s="2" t="s">
-        <v>208</v>
+        <v>218</v>
+      </c>
+      <c r="L93" s="2">
+        <v>2</v>
+      </c>
+      <c r="M93" s="4">
+        <v>0</v>
+      </c>
+      <c r="N93" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="O93" s="6" t="s">
+        <v>258</v>
       </c>
       <c r="P93" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q93" s="2" t="s">
-        <v>208</v>
+        <v>196</v>
+      </c>
+      <c r="Q93" s="6" t="s">
+        <v>260</v>
       </c>
       <c r="R93" s="2" t="s">
         <v>208</v>
@@ -6964,7 +7269,7 @@
         <v>206</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>210</v>
@@ -6972,38 +7277,41 @@
       <c r="E94" s="3">
         <v>2</v>
       </c>
-      <c r="F94" s="2" t="s">
-        <v>208</v>
+      <c r="F94" s="2">
+        <v>1</v>
       </c>
       <c r="G94" s="3">
         <v>61</v>
       </c>
-      <c r="H94" s="2" t="s">
-        <v>212</v>
+      <c r="H94" s="2">
+        <v>1</v>
       </c>
       <c r="I94" s="3">
         <v>61</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="M94" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="N94" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="O94" s="2" t="s">
-        <v>208</v>
+        <v>218</v>
+      </c>
+      <c r="L94" s="2">
+        <v>2</v>
+      </c>
+      <c r="M94" s="4">
+        <v>0</v>
+      </c>
+      <c r="N94" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="O94" s="6" t="s">
+        <v>258</v>
       </c>
       <c r="P94" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q94" s="2" t="s">
-        <v>208</v>
+        <v>196</v>
+      </c>
+      <c r="Q94" s="6" t="s">
+        <v>260</v>
       </c>
       <c r="R94" s="2" t="s">
         <v>208</v>
@@ -7025,8 +7333,8 @@
       <c r="B95" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>208</v>
+      <c r="C95" s="5" t="s">
+        <v>238</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>210</v>
@@ -7034,26 +7342,29 @@
       <c r="E95" s="3">
         <v>1</v>
       </c>
-      <c r="F95" s="2" t="s">
-        <v>208</v>
+      <c r="F95" s="2">
+        <v>1</v>
       </c>
       <c r="G95" s="3">
         <v>2</v>
       </c>
-      <c r="H95" s="2" t="s">
-        <v>212</v>
+      <c r="H95" s="2">
+        <v>1</v>
       </c>
       <c r="I95" s="3">
         <v>2</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="M95" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
+      </c>
+      <c r="L95" s="4">
+        <v>0</v>
+      </c>
+      <c r="M95" s="4">
+        <v>0</v>
       </c>
       <c r="N95" s="2" t="s">
         <v>208</v>
